--- a/statistics/共识耗时统计_无日志_模拟数据.xlsx
+++ b/statistics/共识耗时统计_无日志_模拟数据.xlsx
@@ -18,14 +18,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>单片8节点 全单片交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validTxs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片16节点 全单片交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片8节点 全跨片交易 2个分片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片8节点 50%跨片交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +85,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +105,165 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76298</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="335280" y="624840"/>
+          <a:ext cx="7665818" cy="3070860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>75217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240" y="8900160"/>
+          <a:ext cx="6957060" cy="2917477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8511540" y="670560"/>
+          <a:ext cx="6598920" cy="2842690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>44337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4732021"/>
+          <a:ext cx="6576060" cy="2673236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +308,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +343,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +525,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4500</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>500</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="V2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="W2" s="1">
+        <v>13500</v>
+      </c>
+      <c r="X2" s="1">
+        <v>19500</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D3">
+        <v>1.526</v>
+      </c>
+      <c r="E3">
+        <v>1.6</v>
+      </c>
+      <c r="F3">
+        <v>2.556</v>
+      </c>
+      <c r="G3">
+        <v>2.871</v>
+      </c>
+      <c r="H3">
+        <v>3.9620000000000002</v>
+      </c>
+      <c r="I3">
+        <v>3.492</v>
+      </c>
+      <c r="J3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q3">
+        <v>1.486</v>
+      </c>
+      <c r="R3">
+        <v>1.829</v>
+      </c>
+      <c r="S3">
+        <v>2.8919999999999999</v>
+      </c>
+      <c r="T3">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="U3">
+        <v>3.472</v>
+      </c>
+      <c r="V3">
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="W3">
+        <v>10.878</v>
+      </c>
+      <c r="X3">
+        <v>14.928000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>18.646999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O36" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>500</v>
+      </c>
+      <c r="D49">
+        <v>1000</v>
+      </c>
+      <c r="E49">
+        <v>1500</v>
+      </c>
+      <c r="F49">
+        <v>2000</v>
+      </c>
+      <c r="G49">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0.81</v>
+      </c>
+      <c r="C50">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="D50">
+        <v>3.5</v>
+      </c>
+      <c r="E50">
+        <v>4.99</v>
+      </c>
+      <c r="F50">
+        <v>6.3810000000000002</v>
+      </c>
+      <c r="G50">
+        <v>9.1549999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>